--- a/timetable.xlsx
+++ b/timetable.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
   <si>
     <t>Time/Day</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Bridge Course</t>
   </si>
   <si>
-    <t>Sat maybe extended as full day</t>
-  </si>
-  <si>
     <t>8:30AM-9:30AM</t>
   </si>
   <si>
@@ -106,6 +103,12 @@
   </si>
   <si>
     <t>3:35PM-4:30PM</t>
+  </si>
+  <si>
+    <t>DS Lab-B2,DBMS Lab B1</t>
+  </si>
+  <si>
+    <t>OS Lab B2,Python Lab B1</t>
   </si>
 </sst>
 </file>
@@ -465,7 +468,7 @@
   <dimension ref="A2:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -483,31 +486,31 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -581,7 +584,7 @@
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -605,7 +608,7 @@
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="3" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -648,14 +651,14 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
